--- a/NB-IoT-ideaboard-v2.0-BoM.xlsx
+++ b/NB-IoT-ideaboard-v2.0-BoM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danindu\Documents\eagle\Ideamart\STM32F103R\ideaboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9550C907-01C7-481F-8E4A-37B37F6A2470}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D890A591-7C47-4C9E-90EF-FEEA2DC8D8C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F84AE8A5-7058-4CBE-BC39-579B3FED6586}"/>
   </bookViews>
@@ -742,9 +742,7 @@
   </cellStyles>
   <dxfs count="11">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -776,7 +774,9 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -827,18 +827,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{480182CF-222C-4D62-B449-28ECC4EF0A55}" name="NB_IoT_ideaboard_v2_0_BoM" displayName="NB_IoT_ideaboard_v2_0_BoM" ref="A1:I49" tableType="queryTable" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{480182CF-222C-4D62-B449-28ECC4EF0A55}" name="NB_IoT_ideaboard_v2_0_BoM" displayName="NB_IoT_ideaboard_v2_0_BoM" ref="A1:I49" tableType="queryTable" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:I49" xr:uid="{59509707-EEDA-4320-BD58-6CE2CAC365B6}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{CAB01B93-E0E1-41F6-9A3B-EF89786EDDE7}" uniqueName="1" name="Qty" queryTableFieldId="1" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{4B9A98D9-E2EF-4024-9131-F3993DFE2FB0}" uniqueName="2" name="Value" queryTableFieldId="2" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{5B92BC18-3B4B-4D00-84C3-2C3F04D53879}" uniqueName="3" name="Device" queryTableFieldId="3" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{C0BCE01D-7CAB-4511-B847-2731BE9443CF}" uniqueName="4" name="Package" queryTableFieldId="4" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{239E3ABE-4601-4295-8734-462A4470EA6A}" uniqueName="5" name="Parts" queryTableFieldId="5" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{E2C9E764-5FE1-4B67-9CA6-78419C5B7941}" uniqueName="6" name="Description" queryTableFieldId="6" dataDxfId="5"/>
-    <tableColumn id="22" xr3:uid="{09326668-0218-4A3C-BEE6-1C0E7BDB6F85}" uniqueName="22" name="COMMENTS" queryTableFieldId="22" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{95503C6A-ABC8-4E2D-9190-09F072852BEB}" uniqueName="10" name="MANUFACTURER_PART_NUMBER" queryTableFieldId="10" dataDxfId="3"/>
-    <tableColumn id="18" xr3:uid="{9B29B78B-7BC7-41F7-AB9F-0F000839BEAC}" uniqueName="18" name="VENDOR" queryTableFieldId="18" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{CAB01B93-E0E1-41F6-9A3B-EF89786EDDE7}" uniqueName="1" name="Qty" queryTableFieldId="1" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{4B9A98D9-E2EF-4024-9131-F3993DFE2FB0}" uniqueName="2" name="Value" queryTableFieldId="2" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{5B92BC18-3B4B-4D00-84C3-2C3F04D53879}" uniqueName="3" name="Device" queryTableFieldId="3" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{C0BCE01D-7CAB-4511-B847-2731BE9443CF}" uniqueName="4" name="Package" queryTableFieldId="4" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{239E3ABE-4601-4295-8734-462A4470EA6A}" uniqueName="5" name="Parts" queryTableFieldId="5" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{E2C9E764-5FE1-4B67-9CA6-78419C5B7941}" uniqueName="6" name="Description" queryTableFieldId="6" dataDxfId="3"/>
+    <tableColumn id="22" xr3:uid="{09326668-0218-4A3C-BEE6-1C0E7BDB6F85}" uniqueName="22" name="COMMENTS" queryTableFieldId="22" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{95503C6A-ABC8-4E2D-9190-09F072852BEB}" uniqueName="10" name="MANUFACTURER_PART_NUMBER" queryTableFieldId="10" dataDxfId="1"/>
+    <tableColumn id="18" xr3:uid="{9B29B78B-7BC7-41F7-AB9F-0F000839BEAC}" uniqueName="18" name="VENDOR" queryTableFieldId="18" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1143,8 +1143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D47343F-F77B-474E-B1AF-C9ACF7927EBF}">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
